--- a/data_input/source_data/Program_heli.xlsx
+++ b/data_input/source_data/Program_heli.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE3E708E-0465-42A4-992F-7C52E0A70F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9F843A-6D9D-4B55-B9BA-3FD5AACE4443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="8" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="D298" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D294" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,30 +53,8 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ops_counter_mi8</t>
   </si>
@@ -87,22 +65,22 @@
     <t>ac_type_mask</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>Месяц</t>
   </si>
   <si>
     <t>Год</t>
+  </si>
+  <si>
+    <t>new_counter_mi17</t>
+  </si>
+  <si>
+    <t>new_counter_mi8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -248,25 +226,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -605,11 +570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ298"/>
+  <dimension ref="A1:BJ294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3">
         <v>1</v>
@@ -812,186 +777,186 @@
     <row r="2" spans="1:62" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10">
         <v>2025</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="10">
         <v>2025</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="10">
         <v>2025</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="10">
         <v>2025</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="10">
         <v>2025</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="10">
         <v>2025</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="10">
         <v>2025</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="10">
         <v>2025</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="10">
         <v>2025</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="10">
         <v>2025</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="10">
         <v>2025</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="10">
         <v>2025</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>2026</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="9">
         <v>2026</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <v>2026</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="9">
         <v>2026</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="9">
         <v>2026</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="9">
         <v>2026</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="9">
         <v>2026</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="9">
         <v>2026</v>
       </c>
-      <c r="W2" s="10">
+      <c r="W2" s="9">
         <v>2026</v>
       </c>
-      <c r="X2" s="10">
+      <c r="X2" s="9">
         <v>2026</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="Y2" s="9">
         <v>2026</v>
       </c>
-      <c r="Z2" s="10">
+      <c r="Z2" s="9">
         <v>2026</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AA2" s="9">
         <v>2027</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AB2" s="9">
         <v>2027</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AC2" s="9">
         <v>2027</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AD2" s="9">
         <v>2027</v>
       </c>
-      <c r="AE2" s="10">
+      <c r="AE2" s="9">
         <v>2027</v>
       </c>
-      <c r="AF2" s="10">
+      <c r="AF2" s="9">
         <v>2027</v>
       </c>
-      <c r="AG2" s="10">
+      <c r="AG2" s="9">
         <v>2027</v>
       </c>
-      <c r="AH2" s="10">
+      <c r="AH2" s="9">
         <v>2027</v>
       </c>
-      <c r="AI2" s="10">
+      <c r="AI2" s="9">
         <v>2027</v>
       </c>
-      <c r="AJ2" s="10">
+      <c r="AJ2" s="9">
         <v>2027</v>
       </c>
-      <c r="AK2" s="10">
+      <c r="AK2" s="9">
         <v>2027</v>
       </c>
-      <c r="AL2" s="10">
+      <c r="AL2" s="9">
         <v>2027</v>
       </c>
-      <c r="AM2" s="10">
+      <c r="AM2" s="9">
         <v>2028</v>
       </c>
-      <c r="AN2" s="10">
+      <c r="AN2" s="9">
         <v>2028</v>
       </c>
-      <c r="AO2" s="10">
+      <c r="AO2" s="9">
         <v>2028</v>
       </c>
-      <c r="AP2" s="10">
+      <c r="AP2" s="9">
         <v>2028</v>
       </c>
-      <c r="AQ2" s="10">
+      <c r="AQ2" s="9">
         <v>2028</v>
       </c>
-      <c r="AR2" s="10">
+      <c r="AR2" s="9">
         <v>2028</v>
       </c>
-      <c r="AS2" s="10">
+      <c r="AS2" s="9">
         <v>2028</v>
       </c>
-      <c r="AT2" s="10">
+      <c r="AT2" s="9">
         <v>2028</v>
       </c>
-      <c r="AU2" s="10">
+      <c r="AU2" s="9">
         <v>2028</v>
       </c>
-      <c r="AV2" s="10">
+      <c r="AV2" s="9">
         <v>2028</v>
       </c>
-      <c r="AW2" s="10">
+      <c r="AW2" s="9">
         <v>2028</v>
       </c>
-      <c r="AX2" s="10">
+      <c r="AX2" s="9">
         <v>2028</v>
       </c>
-      <c r="AY2" s="10">
+      <c r="AY2" s="9">
         <v>2029</v>
       </c>
-      <c r="AZ2" s="10">
+      <c r="AZ2" s="9">
         <v>2029</v>
       </c>
-      <c r="BA2" s="10">
+      <c r="BA2" s="9">
         <v>2029</v>
       </c>
-      <c r="BB2" s="10">
+      <c r="BB2" s="9">
         <v>2029</v>
       </c>
-      <c r="BC2" s="10">
+      <c r="BC2" s="9">
         <v>2029</v>
       </c>
-      <c r="BD2" s="10">
+      <c r="BD2" s="9">
         <v>2029</v>
       </c>
-      <c r="BE2" s="10">
+      <c r="BE2" s="9">
         <v>2029</v>
       </c>
-      <c r="BF2" s="10">
+      <c r="BF2" s="9">
         <v>2029</v>
       </c>
-      <c r="BG2" s="10">
+      <c r="BG2" s="9">
         <v>2029</v>
       </c>
-      <c r="BH2" s="10">
+      <c r="BH2" s="9">
         <v>2029</v>
       </c>
-      <c r="BI2" s="10">
+      <c r="BI2" s="9">
         <v>2029</v>
       </c>
-      <c r="BJ2" s="10">
+      <c r="BJ2" s="9">
         <v>2029</v>
       </c>
     </row>
@@ -1038,148 +1003,148 @@
       <c r="N3" s="7">
         <v>68</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="7">
         <v>52</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="7">
         <v>55</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="7">
         <v>55</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="7">
         <v>62</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="7">
         <v>64</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="7">
         <v>65</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="7">
         <v>63</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="7">
         <v>62</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="7">
         <v>62</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="7">
         <v>62</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="7">
         <v>65</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="7">
         <v>65</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="7">
         <v>52</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="7">
         <v>55</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="7">
         <v>55</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="7">
         <v>62</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="7">
         <v>64</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="7">
         <v>65</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="7">
         <v>63</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="7">
         <v>62</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="7">
         <v>62</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="7">
         <v>62</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="7">
         <v>65</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="7">
         <v>65</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="7">
         <v>43</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="7">
         <v>46</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="7">
         <v>46</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="7">
         <v>53</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="7">
         <v>55</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="7">
         <v>56</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="7">
         <v>54</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="7">
         <v>53</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="7">
         <v>53</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="7">
         <v>53</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="7">
         <v>56</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="7">
         <v>56</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="7">
         <v>38</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="7">
         <v>41</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" s="7">
         <v>41</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" s="7">
         <v>48</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" s="7">
         <v>50</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" s="7">
         <v>51</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" s="7">
         <v>49</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" s="7">
         <v>48</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" s="7">
         <v>48</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" s="7">
         <v>48</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" s="7">
         <v>51</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" s="7">
         <v>51</v>
       </c>
     </row>
@@ -1190,316 +1155,326 @@
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>69</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>71</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>74</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>71</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
+        <v>89</v>
+      </c>
+      <c r="H4" s="7">
+        <v>91</v>
+      </c>
+      <c r="I4" s="7">
+        <v>88</v>
+      </c>
+      <c r="J4" s="7">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7">
+        <v>88</v>
+      </c>
+      <c r="L4" s="7">
+        <v>89</v>
+      </c>
+      <c r="M4" s="7">
+        <v>75</v>
+      </c>
+      <c r="N4" s="7">
         <v>76</v>
       </c>
-      <c r="H4" s="9">
-        <v>78</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="O4" s="7">
+        <v>70</v>
+      </c>
+      <c r="P4" s="7">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="7">
         <v>75</v>
       </c>
-      <c r="J4" s="8">
+      <c r="R4" s="7">
         <v>75</v>
       </c>
-      <c r="K4" s="9">
-        <v>75</v>
-      </c>
-      <c r="L4" s="8">
-        <v>76</v>
-      </c>
-      <c r="M4" s="8">
-        <v>75</v>
-      </c>
-      <c r="N4" s="8">
-        <v>76</v>
-      </c>
-      <c r="O4" s="14">
-        <v>70</v>
-      </c>
-      <c r="P4" s="14">
+      <c r="S4" s="7">
+        <v>106</v>
+      </c>
+      <c r="T4" s="7">
+        <v>108</v>
+      </c>
+      <c r="U4" s="7">
+        <v>105</v>
+      </c>
+      <c r="V4" s="7">
+        <v>105</v>
+      </c>
+      <c r="W4" s="7">
+        <v>105</v>
+      </c>
+      <c r="X4" s="7">
+        <v>106</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>79</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>80</v>
+      </c>
+      <c r="AA4" s="7">
         <v>72</v>
       </c>
-      <c r="Q4" s="14">
-        <v>75</v>
-      </c>
-      <c r="R4" s="14">
-        <v>75</v>
-      </c>
-      <c r="S4" s="14">
-        <v>93</v>
-      </c>
-      <c r="T4" s="14">
-        <v>95</v>
-      </c>
-      <c r="U4" s="14">
-        <v>92</v>
-      </c>
-      <c r="V4" s="14">
-        <v>92</v>
-      </c>
-      <c r="W4" s="14">
-        <v>92</v>
-      </c>
-      <c r="X4" s="14">
-        <v>93</v>
-      </c>
-      <c r="Y4" s="14">
-        <v>79</v>
-      </c>
-      <c r="Z4" s="14">
+      <c r="AB4" s="7">
+        <v>74</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>77</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>86</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>115</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>117</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>115</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>115</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>115</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>115</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>91</v>
+      </c>
+      <c r="AM4" s="7">
         <v>80</v>
       </c>
-      <c r="AA4" s="14">
-        <v>72</v>
-      </c>
-      <c r="AB4" s="14">
-        <v>74</v>
-      </c>
-      <c r="AC4" s="14">
-        <v>77</v>
-      </c>
-      <c r="AD4" s="14">
+      <c r="AN4" s="7">
+        <v>82</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>85</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>94</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>123</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>125</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>123</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>123</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>123</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>123</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>98</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>99</v>
+      </c>
+      <c r="AY4" s="7">
+        <v>84</v>
+      </c>
+      <c r="AZ4" s="7">
         <v>86</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="BA4" s="7">
+        <v>89</v>
+      </c>
+      <c r="BB4" s="7">
+        <v>98</v>
+      </c>
+      <c r="BC4" s="7">
+        <v>127</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>129</v>
+      </c>
+      <c r="BE4" s="7">
+        <v>127</v>
+      </c>
+      <c r="BF4" s="7">
+        <v>127</v>
+      </c>
+      <c r="BG4" s="7">
+        <v>127</v>
+      </c>
+      <c r="BH4" s="7">
+        <v>127</v>
+      </c>
+      <c r="BI4" s="7">
         <v>102</v>
       </c>
-      <c r="AF4" s="14">
-        <v>104</v>
-      </c>
-      <c r="AG4" s="14">
-        <v>102</v>
-      </c>
-      <c r="AH4" s="14">
-        <v>102</v>
-      </c>
-      <c r="AI4" s="14">
-        <v>102</v>
-      </c>
-      <c r="AJ4" s="14">
-        <v>102</v>
-      </c>
-      <c r="AK4" s="14">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="14">
-        <v>91</v>
-      </c>
-      <c r="AM4">
-        <v>80</v>
-      </c>
-      <c r="AN4">
-        <v>82</v>
-      </c>
-      <c r="AO4">
-        <v>85</v>
-      </c>
-      <c r="AP4">
-        <v>94</v>
-      </c>
-      <c r="AQ4">
-        <v>110</v>
-      </c>
-      <c r="AR4">
-        <v>112</v>
-      </c>
-      <c r="AS4">
-        <v>110</v>
-      </c>
-      <c r="AT4">
-        <v>110</v>
-      </c>
-      <c r="AU4">
-        <v>110</v>
-      </c>
-      <c r="AV4">
-        <v>110</v>
-      </c>
-      <c r="AW4">
-        <v>98</v>
-      </c>
-      <c r="AX4">
-        <v>99</v>
-      </c>
-      <c r="AY4">
-        <v>84</v>
-      </c>
-      <c r="AZ4">
-        <v>86</v>
-      </c>
-      <c r="BA4">
-        <v>89</v>
-      </c>
-      <c r="BB4">
-        <v>98</v>
-      </c>
-      <c r="BC4">
-        <v>114</v>
-      </c>
-      <c r="BD4">
-        <v>116</v>
-      </c>
-      <c r="BE4">
-        <v>114</v>
-      </c>
-      <c r="BF4">
-        <v>114</v>
-      </c>
-      <c r="BG4">
-        <v>114</v>
-      </c>
-      <c r="BH4">
-        <v>114</v>
-      </c>
-      <c r="BI4">
-        <v>102</v>
-      </c>
-      <c r="BJ4">
+      <c r="BJ4" s="7">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15">
-        <v>2</v>
-      </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
-      <c r="AZ5" s="15"/>
-      <c r="BA5" s="15"/>
-      <c r="BB5" s="15"/>
-      <c r="BC5" s="15"/>
-      <c r="BD5" s="15"/>
-      <c r="BE5" s="15"/>
-      <c r="BF5" s="15"/>
-      <c r="BG5" s="15"/>
-      <c r="BH5" s="15"/>
-      <c r="BI5" s="15"/>
-      <c r="BJ5" s="15"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="7"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="13" cm="1">
-        <f t="array" ref="N6">SUM(C3:N3/12)</f>
+      <c r="A6" s="6">
         <v>64</v>
       </c>
-      <c r="Z6" s="13" cm="1">
-        <f t="array" ref="Z6">SUM(O3:Z3/12)</f>
-        <v>60.999999999999993</v>
-      </c>
-      <c r="AL6" s="13" cm="1">
-        <f t="array" ref="AL6">SUM(AA3:AL3/12)</f>
-        <v>60.999999999999993</v>
-      </c>
-      <c r="AX6" s="13" cm="1">
-        <f t="array" ref="AX6">SUM(AM3:AX3/12)</f>
-        <v>51.999999999999993</v>
-      </c>
-      <c r="BJ6" s="13" cm="1">
-        <f t="array" ref="BJ6">SUM(AY3:BJ3/12)</f>
-        <v>47</v>
-      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7">
+        <v>2</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="7"/>
+      <c r="BJ6" s="7"/>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="N7" s="13" cm="1">
-        <f t="array" ref="N7">SUM(C4:N4/12)</f>
-        <v>74.25</v>
-      </c>
-      <c r="Z7" s="13" cm="1">
-        <f t="array" ref="Z7">SUM(O4:Z4/12)</f>
-        <v>83.999999999999986</v>
-      </c>
-      <c r="AL7" s="13" cm="1">
-        <f t="array" ref="AL7">SUM(AA4:AL4/12)</f>
-        <v>91.999999999999986</v>
-      </c>
-      <c r="AX7" s="13" cm="1">
-        <f t="array" ref="AX7">SUM(AM4:AX4/12)</f>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="BJ7" s="13" cm="1">
-        <f t="array" ref="BJ7">SUM(AY4:BJ4/12)</f>
-        <v>103.99999999999999</v>
-      </c>
-    </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.25"/>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/data_input/source_data/Program_heli.xlsx
+++ b/data_input/source_data/Program_heli.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9F843A-6D9D-4B55-B9BA-3FD5AACE4443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="8" r:id="rId1"/>
@@ -13,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="D294" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D294" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ops_counter_mi8</t>
   </si>
@@ -65,22 +64,19 @@
     <t>ac_type_mask</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>Месяц</t>
   </si>
   <si>
     <t>Год</t>
   </si>
-  <si>
-    <t>new_counter_mi17</t>
-  </si>
-  <si>
-    <t>new_counter_mi8</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -181,19 +177,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -202,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -223,15 +206,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -325,23 +303,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -377,23 +338,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -569,29 +513,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="6.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="1" customWidth="1"/>
-    <col min="12" max="14" width="6.5703125" customWidth="1"/>
+    <col min="3" max="10" width="6.54296875" customWidth="1"/>
+    <col min="11" max="11" width="6.54296875" style="1" customWidth="1"/>
+    <col min="12" max="14" width="6.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3">
         <v>1</v>
@@ -774,193 +718,193 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="10">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
         <v>2025</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="3">
         <v>2025</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="3">
         <v>2025</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="3">
         <v>2025</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="3">
         <v>2025</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="3">
         <v>2025</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="3">
         <v>2025</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="3">
         <v>2025</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="3">
         <v>2025</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="3">
         <v>2025</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="3">
         <v>2025</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="3">
         <v>2025</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="8">
         <v>2026</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="8">
         <v>2026</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="8">
         <v>2026</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="8">
         <v>2026</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="8">
         <v>2026</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="8">
         <v>2026</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="8">
         <v>2026</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="8">
         <v>2026</v>
       </c>
-      <c r="W2" s="9">
+      <c r="W2" s="8">
         <v>2026</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" s="8">
         <v>2026</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="Y2" s="8">
         <v>2026</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="Z2" s="8">
         <v>2026</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="AA2" s="8">
         <v>2027</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AB2" s="8">
         <v>2027</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AC2" s="8">
         <v>2027</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AD2" s="8">
         <v>2027</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AE2" s="8">
         <v>2027</v>
       </c>
-      <c r="AF2" s="9">
+      <c r="AF2" s="8">
         <v>2027</v>
       </c>
-      <c r="AG2" s="9">
+      <c r="AG2" s="8">
         <v>2027</v>
       </c>
-      <c r="AH2" s="9">
+      <c r="AH2" s="8">
         <v>2027</v>
       </c>
-      <c r="AI2" s="9">
+      <c r="AI2" s="8">
         <v>2027</v>
       </c>
-      <c r="AJ2" s="9">
+      <c r="AJ2" s="8">
         <v>2027</v>
       </c>
-      <c r="AK2" s="9">
+      <c r="AK2" s="8">
         <v>2027</v>
       </c>
-      <c r="AL2" s="9">
+      <c r="AL2" s="8">
         <v>2027</v>
       </c>
-      <c r="AM2" s="9">
+      <c r="AM2" s="8">
         <v>2028</v>
       </c>
-      <c r="AN2" s="9">
+      <c r="AN2" s="8">
         <v>2028</v>
       </c>
-      <c r="AO2" s="9">
+      <c r="AO2" s="8">
         <v>2028</v>
       </c>
-      <c r="AP2" s="9">
+      <c r="AP2" s="8">
         <v>2028</v>
       </c>
-      <c r="AQ2" s="9">
+      <c r="AQ2" s="8">
         <v>2028</v>
       </c>
-      <c r="AR2" s="9">
+      <c r="AR2" s="8">
         <v>2028</v>
       </c>
-      <c r="AS2" s="9">
+      <c r="AS2" s="8">
         <v>2028</v>
       </c>
-      <c r="AT2" s="9">
+      <c r="AT2" s="8">
         <v>2028</v>
       </c>
-      <c r="AU2" s="9">
+      <c r="AU2" s="8">
         <v>2028</v>
       </c>
-      <c r="AV2" s="9">
+      <c r="AV2" s="8">
         <v>2028</v>
       </c>
-      <c r="AW2" s="9">
+      <c r="AW2" s="8">
         <v>2028</v>
       </c>
-      <c r="AX2" s="9">
+      <c r="AX2" s="8">
         <v>2028</v>
       </c>
-      <c r="AY2" s="9">
+      <c r="AY2" s="8">
         <v>2029</v>
       </c>
-      <c r="AZ2" s="9">
+      <c r="AZ2" s="8">
         <v>2029</v>
       </c>
-      <c r="BA2" s="9">
+      <c r="BA2" s="8">
         <v>2029</v>
       </c>
-      <c r="BB2" s="9">
+      <c r="BB2" s="8">
         <v>2029</v>
       </c>
-      <c r="BC2" s="9">
+      <c r="BC2" s="8">
         <v>2029</v>
       </c>
-      <c r="BD2" s="9">
+      <c r="BD2" s="8">
         <v>2029</v>
       </c>
-      <c r="BE2" s="9">
+      <c r="BE2" s="8">
         <v>2029</v>
       </c>
-      <c r="BF2" s="9">
+      <c r="BF2" s="8">
         <v>2029</v>
       </c>
-      <c r="BG2" s="9">
+      <c r="BG2" s="8">
         <v>2029</v>
       </c>
-      <c r="BH2" s="9">
+      <c r="BH2" s="8">
         <v>2029</v>
       </c>
-      <c r="BI2" s="9">
+      <c r="BI2" s="8">
         <v>2029</v>
       </c>
-      <c r="BJ2" s="9">
+      <c r="BJ2" s="8">
         <v>2029</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>32</v>
       </c>
@@ -1003,156 +947,156 @@
       <c r="N3" s="7">
         <v>68</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3">
         <v>52</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3">
         <v>55</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3">
         <v>55</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3">
         <v>62</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3">
         <v>64</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3">
         <v>65</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3">
         <v>63</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3">
         <v>62</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3">
         <v>62</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3">
         <v>62</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3">
         <v>65</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3">
         <v>65</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3">
         <v>52</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3">
         <v>55</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3">
         <v>55</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AD3">
         <v>62</v>
       </c>
-      <c r="AE3" s="7">
+      <c r="AE3">
         <v>64</v>
       </c>
-      <c r="AF3" s="7">
+      <c r="AF3">
         <v>65</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG3">
         <v>63</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AH3">
         <v>62</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AI3">
         <v>62</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AJ3">
         <v>62</v>
       </c>
-      <c r="AK3" s="7">
+      <c r="AK3">
         <v>65</v>
       </c>
-      <c r="AL3" s="7">
+      <c r="AL3">
         <v>65</v>
       </c>
-      <c r="AM3" s="7">
+      <c r="AM3">
         <v>43</v>
       </c>
-      <c r="AN3" s="7">
+      <c r="AN3">
         <v>46</v>
       </c>
-      <c r="AO3" s="7">
+      <c r="AO3">
         <v>46</v>
       </c>
-      <c r="AP3" s="7">
+      <c r="AP3">
         <v>53</v>
       </c>
-      <c r="AQ3" s="7">
+      <c r="AQ3">
         <v>55</v>
       </c>
-      <c r="AR3" s="7">
+      <c r="AR3">
         <v>56</v>
       </c>
-      <c r="AS3" s="7">
+      <c r="AS3">
         <v>54</v>
       </c>
-      <c r="AT3" s="7">
+      <c r="AT3">
         <v>53</v>
       </c>
-      <c r="AU3" s="7">
+      <c r="AU3">
         <v>53</v>
       </c>
-      <c r="AV3" s="7">
+      <c r="AV3">
         <v>53</v>
       </c>
-      <c r="AW3" s="7">
+      <c r="AW3">
         <v>56</v>
       </c>
-      <c r="AX3" s="7">
+      <c r="AX3">
         <v>56</v>
       </c>
-      <c r="AY3" s="7">
+      <c r="AY3">
         <v>38</v>
       </c>
-      <c r="AZ3" s="7">
+      <c r="AZ3">
         <v>41</v>
       </c>
-      <c r="BA3" s="7">
+      <c r="BA3">
         <v>41</v>
       </c>
-      <c r="BB3" s="7">
+      <c r="BB3">
         <v>48</v>
       </c>
-      <c r="BC3" s="7">
+      <c r="BC3">
         <v>50</v>
       </c>
-      <c r="BD3" s="7">
+      <c r="BD3">
         <v>51</v>
       </c>
-      <c r="BE3" s="7">
+      <c r="BE3">
         <v>49</v>
       </c>
-      <c r="BF3" s="7">
+      <c r="BF3">
         <v>48</v>
       </c>
-      <c r="BG3" s="7">
+      <c r="BG3">
         <v>48</v>
       </c>
-      <c r="BH3" s="7">
+      <c r="BH3">
         <v>48</v>
       </c>
-      <c r="BI3" s="7">
+      <c r="BI3">
         <v>51</v>
       </c>
-      <c r="BJ3" s="7">
+      <c r="BJ3">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>64</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="7">
@@ -1191,290 +1135,222 @@
       <c r="N4" s="7">
         <v>76</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4">
         <v>70</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4">
         <v>72</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4">
         <v>75</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4">
         <v>75</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4">
         <v>106</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4">
         <v>108</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4">
         <v>105</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4">
         <v>105</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4">
         <v>105</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4">
         <v>106</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4">
         <v>79</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4">
         <v>80</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4">
         <v>72</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4">
         <v>74</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4">
         <v>77</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4">
         <v>86</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AE4">
         <v>115</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AF4">
         <v>117</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AG4">
         <v>115</v>
       </c>
-      <c r="AH4" s="7">
+      <c r="AH4">
         <v>115</v>
       </c>
-      <c r="AI4" s="7">
+      <c r="AI4">
         <v>115</v>
       </c>
-      <c r="AJ4" s="7">
+      <c r="AJ4">
         <v>115</v>
       </c>
-      <c r="AK4" s="7">
+      <c r="AK4">
         <v>90</v>
       </c>
-      <c r="AL4" s="7">
+      <c r="AL4">
         <v>91</v>
       </c>
-      <c r="AM4" s="7">
+      <c r="AM4">
         <v>80</v>
       </c>
-      <c r="AN4" s="7">
+      <c r="AN4">
         <v>82</v>
       </c>
-      <c r="AO4" s="7">
+      <c r="AO4">
         <v>85</v>
       </c>
-      <c r="AP4" s="7">
+      <c r="AP4">
         <v>94</v>
       </c>
-      <c r="AQ4" s="7">
+      <c r="AQ4">
         <v>123</v>
       </c>
-      <c r="AR4" s="7">
+      <c r="AR4">
         <v>125</v>
       </c>
-      <c r="AS4" s="7">
+      <c r="AS4">
         <v>123</v>
       </c>
-      <c r="AT4" s="7">
+      <c r="AT4">
         <v>123</v>
       </c>
-      <c r="AU4" s="7">
+      <c r="AU4">
         <v>123</v>
       </c>
-      <c r="AV4" s="7">
+      <c r="AV4">
         <v>123</v>
       </c>
-      <c r="AW4" s="7">
+      <c r="AW4">
         <v>98</v>
       </c>
-      <c r="AX4" s="7">
+      <c r="AX4">
         <v>99</v>
       </c>
-      <c r="AY4" s="7">
+      <c r="AY4">
         <v>84</v>
       </c>
-      <c r="AZ4" s="7">
+      <c r="AZ4">
         <v>86</v>
       </c>
-      <c r="BA4" s="7">
+      <c r="BA4">
         <v>89</v>
       </c>
-      <c r="BB4" s="7">
+      <c r="BB4">
         <v>98</v>
       </c>
-      <c r="BC4" s="7">
+      <c r="BC4">
         <v>127</v>
       </c>
-      <c r="BD4" s="7">
+      <c r="BD4">
         <v>129</v>
       </c>
-      <c r="BE4" s="7">
+      <c r="BE4">
         <v>127</v>
       </c>
-      <c r="BF4" s="7">
+      <c r="BF4">
         <v>127</v>
       </c>
-      <c r="BG4" s="7">
+      <c r="BG4">
         <v>127</v>
       </c>
-      <c r="BH4" s="7">
+      <c r="BH4">
         <v>127</v>
       </c>
-      <c r="BI4" s="7">
+      <c r="BI4">
         <v>102</v>
       </c>
-      <c r="BJ4" s="7">
+      <c r="BJ4">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="7"/>
-      <c r="BF5" s="7"/>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="7"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="7"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9">
+        <v>2</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>64</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7">
-        <v>2</v>
-      </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="7"/>
-      <c r="BC6" s="7"/>
-      <c r="BD6" s="7"/>
-      <c r="BE6" s="7"/>
-      <c r="BF6" s="7"/>
-      <c r="BG6" s="7"/>
-      <c r="BH6" s="7"/>
-      <c r="BI6" s="7"/>
-      <c r="BJ6" s="7"/>
-    </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.25"/>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/data_input/source_data/Program_heli.xlsx
+++ b/data_input/source_data/Program_heli.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="D294" authorId="0" shapeId="0">
+    <comment ref="D293" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ops_counter_mi8</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Год</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -209,7 +212,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -514,11 +516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ294"/>
+  <dimension ref="A1:BJ293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD9"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -947,148 +949,148 @@
       <c r="N3" s="7">
         <v>68</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="7">
         <v>52</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="7">
         <v>55</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="7">
         <v>55</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="7">
         <v>62</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="7">
         <v>64</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="7">
         <v>65</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="7">
         <v>63</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="7">
         <v>62</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="7">
         <v>62</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="7">
         <v>62</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="7">
         <v>65</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="7">
         <v>65</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="7">
         <v>52</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="7">
         <v>55</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="7">
         <v>55</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="7">
         <v>62</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="7">
         <v>64</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="7">
         <v>65</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="7">
         <v>63</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="7">
         <v>62</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="7">
         <v>62</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="7">
         <v>62</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="7">
         <v>65</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="7">
         <v>65</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="7">
         <v>43</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="7">
         <v>46</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="7">
         <v>46</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="7">
         <v>53</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="7">
         <v>55</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="7">
         <v>56</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="7">
         <v>54</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="7">
         <v>53</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="7">
         <v>53</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="7">
         <v>53</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="7">
         <v>56</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="7">
         <v>56</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="7">
         <v>38</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="7">
         <v>41</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" s="7">
         <v>41</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" s="7">
         <v>48</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" s="7">
         <v>50</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" s="7">
         <v>51</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" s="7">
         <v>49</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" s="7">
         <v>48</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" s="7">
         <v>48</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" s="7">
         <v>48</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" s="7">
         <v>51</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" s="7">
         <v>51</v>
       </c>
     </row>
@@ -1130,154 +1132,154 @@
         <v>89</v>
       </c>
       <c r="M4" s="7">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="N4" s="7">
-        <v>76</v>
-      </c>
-      <c r="O4">
-        <v>70</v>
-      </c>
-      <c r="P4">
-        <v>72</v>
-      </c>
-      <c r="Q4">
-        <v>75</v>
-      </c>
-      <c r="R4">
-        <v>75</v>
-      </c>
-      <c r="S4">
+        <v>89</v>
+      </c>
+      <c r="O4" s="7">
+        <v>83</v>
+      </c>
+      <c r="P4" s="7">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>88</v>
+      </c>
+      <c r="R4" s="7">
+        <v>88</v>
+      </c>
+      <c r="S4" s="7">
         <v>106</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="7">
         <v>108</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="7">
         <v>105</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="7">
         <v>105</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="7">
         <v>105</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="7">
         <v>106</v>
       </c>
-      <c r="Y4">
-        <v>79</v>
-      </c>
-      <c r="Z4">
-        <v>80</v>
-      </c>
-      <c r="AA4">
-        <v>72</v>
-      </c>
-      <c r="AB4">
-        <v>74</v>
-      </c>
-      <c r="AC4">
-        <v>77</v>
-      </c>
-      <c r="AD4">
-        <v>86</v>
-      </c>
-      <c r="AE4">
+      <c r="Y4" s="7">
+        <v>92</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>93</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>85</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>87</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>90</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>99</v>
+      </c>
+      <c r="AE4" s="7">
         <v>115</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="7">
         <v>117</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="7">
         <v>115</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="7">
         <v>115</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="7">
         <v>115</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="7">
         <v>115</v>
       </c>
-      <c r="AK4">
-        <v>90</v>
-      </c>
-      <c r="AL4">
-        <v>91</v>
-      </c>
-      <c r="AM4">
-        <v>80</v>
-      </c>
-      <c r="AN4">
-        <v>82</v>
-      </c>
-      <c r="AO4">
-        <v>85</v>
-      </c>
-      <c r="AP4">
-        <v>94</v>
-      </c>
-      <c r="AQ4">
+      <c r="AK4" s="7">
+        <v>103</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>104</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>93</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>95</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>98</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>107</v>
+      </c>
+      <c r="AQ4" s="7">
         <v>123</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="7">
         <v>125</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="7">
         <v>123</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="7">
         <v>123</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="7">
         <v>123</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="7">
         <v>123</v>
       </c>
-      <c r="AW4">
-        <v>98</v>
-      </c>
-      <c r="AX4">
+      <c r="AW4" s="7">
+        <v>111</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>112</v>
+      </c>
+      <c r="AY4" s="7">
+        <v>97</v>
+      </c>
+      <c r="AZ4" s="7">
         <v>99</v>
       </c>
-      <c r="AY4">
-        <v>84</v>
-      </c>
-      <c r="AZ4">
-        <v>86</v>
-      </c>
-      <c r="BA4">
-        <v>89</v>
-      </c>
-      <c r="BB4">
-        <v>98</v>
-      </c>
-      <c r="BC4">
+      <c r="BA4" s="7">
+        <v>102</v>
+      </c>
+      <c r="BB4" s="7">
+        <v>111</v>
+      </c>
+      <c r="BC4" s="7">
         <v>127</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" s="7">
         <v>129</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" s="7">
         <v>127</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" s="7">
         <v>127</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" s="7">
         <v>127</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" s="7">
         <v>127</v>
       </c>
-      <c r="BI4">
-        <v>102</v>
-      </c>
-      <c r="BJ4">
-        <v>103</v>
+      <c r="BI4" s="7">
+        <v>115</v>
+      </c>
+      <c r="BJ4" s="7">
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.35">
@@ -1287,70 +1289,75 @@
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
         <v>2</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="9"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="9"/>
-      <c r="BF5" s="9"/>
-      <c r="BG5" s="9"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="9"/>
-      <c r="BJ5" s="9"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="7"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/data_input/source_data/Program_heli.xlsx
+++ b/data_input/source_data/Program_heli.xlsx
@@ -64,9 +64,6 @@
     <t>ac_type_mask</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>Месяц</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>new_counter_mi17</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3">
         <v>1</v>
@@ -723,7 +723,7 @@
     <row r="2" spans="1:62" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>2025</v>
@@ -1287,7 +1287,7 @@
         <v>64</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="4:4" x14ac:dyDescent="0.35"/>

--- a/data_input/source_data/Program_heli.xlsx
+++ b/data_input/source_data/Program_heli.xlsx
@@ -520,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1302,11 +1302,11 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="7">
+        <v>7</v>
+      </c>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7">
-        <v>2</v>
-      </c>
+      <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>

--- a/data_input/source_data/Program_heli.xlsx
+++ b/data_input/source_data/Program_heli.xlsx
@@ -118,7 +118,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,12 +140,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,19 +182,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,7 +508,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,25 +542,25 @@
       <c r="G1" s="3">
         <v>5</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>6</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="3">
         <v>7</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="3">
         <v>8</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="3">
         <v>9</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="3">
         <v>10</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="3">
         <v>11</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="3">
         <v>12</v>
       </c>
       <c r="O1" s="3">
@@ -590,25 +578,25 @@
       <c r="S1" s="3">
         <v>5</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="3">
         <v>6</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="3">
         <v>7</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="3">
         <v>8</v>
       </c>
-      <c r="W1" s="5">
+      <c r="W1" s="3">
         <v>9</v>
       </c>
-      <c r="X1" s="5">
+      <c r="X1" s="3">
         <v>10</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Y1" s="3">
         <v>11</v>
       </c>
-      <c r="Z1" s="5">
+      <c r="Z1" s="3">
         <v>12</v>
       </c>
       <c r="AA1" s="3">
@@ -626,25 +614,25 @@
       <c r="AE1" s="3">
         <v>5</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1" s="3">
         <v>6</v>
       </c>
-      <c r="AG1" s="5">
+      <c r="AG1" s="3">
         <v>7</v>
       </c>
-      <c r="AH1" s="5">
+      <c r="AH1" s="3">
         <v>8</v>
       </c>
-      <c r="AI1" s="5">
+      <c r="AI1" s="3">
         <v>9</v>
       </c>
-      <c r="AJ1" s="5">
+      <c r="AJ1" s="3">
         <v>10</v>
       </c>
-      <c r="AK1" s="5">
+      <c r="AK1" s="3">
         <v>11</v>
       </c>
-      <c r="AL1" s="5">
+      <c r="AL1" s="3">
         <v>12</v>
       </c>
       <c r="AM1" s="3">
@@ -662,25 +650,25 @@
       <c r="AQ1" s="3">
         <v>5</v>
       </c>
-      <c r="AR1" s="4">
+      <c r="AR1" s="3">
         <v>6</v>
       </c>
-      <c r="AS1" s="5">
+      <c r="AS1" s="3">
         <v>7</v>
       </c>
-      <c r="AT1" s="5">
+      <c r="AT1" s="3">
         <v>8</v>
       </c>
-      <c r="AU1" s="5">
+      <c r="AU1" s="3">
         <v>9</v>
       </c>
-      <c r="AV1" s="5">
+      <c r="AV1" s="3">
         <v>10</v>
       </c>
-      <c r="AW1" s="5">
+      <c r="AW1" s="3">
         <v>11</v>
       </c>
-      <c r="AX1" s="5">
+      <c r="AX1" s="3">
         <v>12</v>
       </c>
       <c r="AY1" s="3">
@@ -698,25 +686,25 @@
       <c r="BC1" s="3">
         <v>5</v>
       </c>
-      <c r="BD1" s="4">
+      <c r="BD1" s="3">
         <v>6</v>
       </c>
-      <c r="BE1" s="5">
+      <c r="BE1" s="3">
         <v>7</v>
       </c>
-      <c r="BF1" s="5">
+      <c r="BF1" s="3">
         <v>8</v>
       </c>
-      <c r="BG1" s="5">
+      <c r="BG1" s="3">
         <v>9</v>
       </c>
-      <c r="BH1" s="5">
+      <c r="BH1" s="3">
         <v>10</v>
       </c>
-      <c r="BI1" s="5">
+      <c r="BI1" s="3">
         <v>11</v>
       </c>
-      <c r="BJ1" s="5">
+      <c r="BJ1" s="3">
         <v>12</v>
       </c>
     </row>
@@ -761,596 +749,596 @@
       <c r="N2" s="3">
         <v>2025</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="6">
         <v>2026</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="6">
         <v>2026</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="6">
         <v>2026</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="6">
         <v>2026</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="6">
         <v>2026</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="6">
         <v>2026</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="6">
         <v>2026</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="6">
         <v>2026</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="6">
         <v>2026</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="6">
         <v>2026</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="6">
         <v>2026</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="6">
         <v>2026</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="6">
         <v>2027</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="6">
         <v>2027</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="6">
         <v>2027</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="6">
         <v>2027</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AE2" s="6">
         <v>2027</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AF2" s="6">
         <v>2027</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AG2" s="6">
         <v>2027</v>
       </c>
-      <c r="AH2" s="8">
+      <c r="AH2" s="6">
         <v>2027</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AI2" s="6">
         <v>2027</v>
       </c>
-      <c r="AJ2" s="8">
+      <c r="AJ2" s="6">
         <v>2027</v>
       </c>
-      <c r="AK2" s="8">
+      <c r="AK2" s="6">
         <v>2027</v>
       </c>
-      <c r="AL2" s="8">
+      <c r="AL2" s="6">
         <v>2027</v>
       </c>
-      <c r="AM2" s="8">
+      <c r="AM2" s="6">
         <v>2028</v>
       </c>
-      <c r="AN2" s="8">
+      <c r="AN2" s="6">
         <v>2028</v>
       </c>
-      <c r="AO2" s="8">
+      <c r="AO2" s="6">
         <v>2028</v>
       </c>
-      <c r="AP2" s="8">
+      <c r="AP2" s="6">
         <v>2028</v>
       </c>
-      <c r="AQ2" s="8">
+      <c r="AQ2" s="6">
         <v>2028</v>
       </c>
-      <c r="AR2" s="8">
+      <c r="AR2" s="6">
         <v>2028</v>
       </c>
-      <c r="AS2" s="8">
+      <c r="AS2" s="6">
         <v>2028</v>
       </c>
-      <c r="AT2" s="8">
+      <c r="AT2" s="6">
         <v>2028</v>
       </c>
-      <c r="AU2" s="8">
+      <c r="AU2" s="6">
         <v>2028</v>
       </c>
-      <c r="AV2" s="8">
+      <c r="AV2" s="6">
         <v>2028</v>
       </c>
-      <c r="AW2" s="8">
+      <c r="AW2" s="6">
         <v>2028</v>
       </c>
-      <c r="AX2" s="8">
+      <c r="AX2" s="6">
         <v>2028</v>
       </c>
-      <c r="AY2" s="8">
+      <c r="AY2" s="6">
         <v>2029</v>
       </c>
-      <c r="AZ2" s="8">
+      <c r="AZ2" s="6">
         <v>2029</v>
       </c>
-      <c r="BA2" s="8">
+      <c r="BA2" s="6">
         <v>2029</v>
       </c>
-      <c r="BB2" s="8">
+      <c r="BB2" s="6">
         <v>2029</v>
       </c>
-      <c r="BC2" s="8">
+      <c r="BC2" s="6">
         <v>2029</v>
       </c>
-      <c r="BD2" s="8">
+      <c r="BD2" s="6">
         <v>2029</v>
       </c>
-      <c r="BE2" s="8">
+      <c r="BE2" s="6">
         <v>2029</v>
       </c>
-      <c r="BF2" s="8">
+      <c r="BF2" s="6">
         <v>2029</v>
       </c>
-      <c r="BG2" s="8">
+      <c r="BG2" s="6">
         <v>2029</v>
       </c>
-      <c r="BH2" s="8">
+      <c r="BH2" s="6">
         <v>2029</v>
       </c>
-      <c r="BI2" s="8">
+      <c r="BI2" s="6">
         <v>2029</v>
       </c>
-      <c r="BJ2" s="8">
+      <c r="BJ2" s="6">
         <v>2029</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>32</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>55</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>58</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>58</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>65</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>67</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>68</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>68</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>64</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>64</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>65</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <v>68</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="5">
         <v>68</v>
       </c>
-      <c r="O3" s="7">
-        <v>52</v>
-      </c>
-      <c r="P3" s="7">
+      <c r="O3" s="5">
+        <v>42</v>
+      </c>
+      <c r="P3" s="5">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>42</v>
+      </c>
+      <c r="R3" s="5">
+        <v>44</v>
+      </c>
+      <c r="S3" s="5">
+        <v>46</v>
+      </c>
+      <c r="T3" s="5">
+        <v>47</v>
+      </c>
+      <c r="U3" s="5">
+        <v>47</v>
+      </c>
+      <c r="V3" s="5">
+        <v>47</v>
+      </c>
+      <c r="W3" s="5">
+        <v>47</v>
+      </c>
+      <c r="X3" s="5">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>47</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>47</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>47</v>
+      </c>
+      <c r="AC3" s="5">
         <v>55</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="AD3" s="5">
+        <v>62</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>64</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>65</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>63</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>62</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>62</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>62</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>65</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>65</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>43</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>46</v>
+      </c>
+      <c r="AO3" s="5">
+        <v>46</v>
+      </c>
+      <c r="AP3" s="5">
+        <v>53</v>
+      </c>
+      <c r="AQ3" s="5">
         <v>55</v>
       </c>
-      <c r="R3" s="7">
-        <v>62</v>
-      </c>
-      <c r="S3" s="7">
-        <v>64</v>
-      </c>
-      <c r="T3" s="7">
-        <v>65</v>
-      </c>
-      <c r="U3" s="7">
-        <v>63</v>
-      </c>
-      <c r="V3" s="7">
-        <v>62</v>
-      </c>
-      <c r="W3" s="7">
-        <v>62</v>
-      </c>
-      <c r="X3" s="7">
-        <v>62</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>65</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>65</v>
-      </c>
-      <c r="AA3" s="7">
-        <v>52</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>55</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>62</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>64</v>
-      </c>
-      <c r="AF3" s="7">
-        <v>65</v>
-      </c>
-      <c r="AG3" s="7">
-        <v>63</v>
-      </c>
-      <c r="AH3" s="7">
-        <v>62</v>
-      </c>
-      <c r="AI3" s="7">
-        <v>62</v>
-      </c>
-      <c r="AJ3" s="7">
-        <v>62</v>
-      </c>
-      <c r="AK3" s="7">
-        <v>65</v>
-      </c>
-      <c r="AL3" s="7">
-        <v>65</v>
-      </c>
-      <c r="AM3" s="7">
-        <v>43</v>
-      </c>
-      <c r="AN3" s="7">
-        <v>46</v>
-      </c>
-      <c r="AO3" s="7">
-        <v>46</v>
-      </c>
-      <c r="AP3" s="7">
+      <c r="AR3" s="5">
+        <v>56</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>54</v>
+      </c>
+      <c r="AT3" s="5">
         <v>53</v>
       </c>
-      <c r="AQ3" s="7">
-        <v>55</v>
-      </c>
-      <c r="AR3" s="7">
+      <c r="AU3" s="5">
+        <v>53</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>53</v>
+      </c>
+      <c r="AW3" s="5">
         <v>56</v>
       </c>
-      <c r="AS3" s="7">
-        <v>54</v>
-      </c>
-      <c r="AT3" s="7">
-        <v>53</v>
-      </c>
-      <c r="AU3" s="7">
-        <v>53</v>
-      </c>
-      <c r="AV3" s="7">
-        <v>53</v>
-      </c>
-      <c r="AW3" s="7">
+      <c r="AX3" s="5">
         <v>56</v>
       </c>
-      <c r="AX3" s="7">
-        <v>56</v>
-      </c>
-      <c r="AY3" s="7">
+      <c r="AY3" s="5">
         <v>38</v>
       </c>
-      <c r="AZ3" s="7">
+      <c r="AZ3" s="5">
         <v>41</v>
       </c>
-      <c r="BA3" s="7">
+      <c r="BA3" s="5">
         <v>41</v>
       </c>
-      <c r="BB3" s="7">
+      <c r="BB3" s="5">
         <v>48</v>
       </c>
-      <c r="BC3" s="7">
+      <c r="BC3" s="5">
         <v>50</v>
       </c>
-      <c r="BD3" s="7">
+      <c r="BD3" s="5">
         <v>51</v>
       </c>
-      <c r="BE3" s="7">
+      <c r="BE3" s="5">
         <v>49</v>
       </c>
-      <c r="BF3" s="7">
+      <c r="BF3" s="5">
         <v>48</v>
       </c>
-      <c r="BG3" s="7">
+      <c r="BG3" s="5">
         <v>48</v>
       </c>
-      <c r="BH3" s="7">
+      <c r="BH3" s="5">
         <v>48</v>
       </c>
-      <c r="BI3" s="7">
+      <c r="BI3" s="5">
         <v>51</v>
       </c>
-      <c r="BJ3" s="7">
+      <c r="BJ3" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>64</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>69</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>71</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>74</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>71</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>89</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>91</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>88</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>88</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>88</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>89</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <v>88</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <v>89</v>
       </c>
-      <c r="O4" s="7">
-        <v>83</v>
-      </c>
-      <c r="P4" s="7">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="7">
+      <c r="O4" s="5">
         <v>88</v>
       </c>
-      <c r="R4" s="7">
+      <c r="P4" s="5">
         <v>88</v>
       </c>
-      <c r="S4" s="7">
-        <v>106</v>
-      </c>
-      <c r="T4" s="7">
-        <v>108</v>
-      </c>
-      <c r="U4" s="7">
-        <v>105</v>
-      </c>
-      <c r="V4" s="7">
-        <v>105</v>
-      </c>
-      <c r="W4" s="7">
-        <v>105</v>
-      </c>
-      <c r="X4" s="7">
-        <v>106</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>92</v>
-      </c>
-      <c r="Z4" s="7">
+      <c r="Q4" s="5">
+        <v>90</v>
+      </c>
+      <c r="R4" s="5">
+        <v>95</v>
+      </c>
+      <c r="S4" s="5">
+        <v>101</v>
+      </c>
+      <c r="T4" s="5">
+        <v>104</v>
+      </c>
+      <c r="U4" s="5">
+        <v>104</v>
+      </c>
+      <c r="V4" s="5">
+        <v>104</v>
+      </c>
+      <c r="W4" s="5">
+        <v>103</v>
+      </c>
+      <c r="X4" s="5">
+        <v>103</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>101</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>101</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>99</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>104</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>90</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>99</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>115</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>117</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>115</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>115</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>115</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>115</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>103</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>104</v>
+      </c>
+      <c r="AM4" s="5">
         <v>93</v>
       </c>
-      <c r="AA4" s="7">
-        <v>85</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>87</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>90</v>
-      </c>
-      <c r="AD4" s="7">
+      <c r="AN4" s="5">
+        <v>95</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>98</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>107</v>
+      </c>
+      <c r="AQ4" s="5">
+        <v>123</v>
+      </c>
+      <c r="AR4" s="5">
+        <v>125</v>
+      </c>
+      <c r="AS4" s="5">
+        <v>123</v>
+      </c>
+      <c r="AT4" s="5">
+        <v>123</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>123</v>
+      </c>
+      <c r="AV4" s="5">
+        <v>123</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>111</v>
+      </c>
+      <c r="AX4" s="5">
+        <v>112</v>
+      </c>
+      <c r="AY4" s="5">
+        <v>97</v>
+      </c>
+      <c r="AZ4" s="5">
         <v>99</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="BA4" s="5">
+        <v>102</v>
+      </c>
+      <c r="BB4" s="5">
+        <v>111</v>
+      </c>
+      <c r="BC4" s="5">
+        <v>127</v>
+      </c>
+      <c r="BD4" s="5">
+        <v>129</v>
+      </c>
+      <c r="BE4" s="5">
+        <v>127</v>
+      </c>
+      <c r="BF4" s="5">
+        <v>127</v>
+      </c>
+      <c r="BG4" s="5">
+        <v>127</v>
+      </c>
+      <c r="BH4" s="5">
+        <v>127</v>
+      </c>
+      <c r="BI4" s="5">
         <v>115</v>
       </c>
-      <c r="AF4" s="7">
-        <v>117</v>
-      </c>
-      <c r="AG4" s="7">
-        <v>115</v>
-      </c>
-      <c r="AH4" s="7">
-        <v>115</v>
-      </c>
-      <c r="AI4" s="7">
-        <v>115</v>
-      </c>
-      <c r="AJ4" s="7">
-        <v>115</v>
-      </c>
-      <c r="AK4" s="7">
-        <v>103</v>
-      </c>
-      <c r="AL4" s="7">
-        <v>104</v>
-      </c>
-      <c r="AM4" s="7">
-        <v>93</v>
-      </c>
-      <c r="AN4" s="7">
-        <v>95</v>
-      </c>
-      <c r="AO4" s="7">
-        <v>98</v>
-      </c>
-      <c r="AP4" s="7">
-        <v>107</v>
-      </c>
-      <c r="AQ4" s="7">
-        <v>123</v>
-      </c>
-      <c r="AR4" s="7">
-        <v>125</v>
-      </c>
-      <c r="AS4" s="7">
-        <v>123</v>
-      </c>
-      <c r="AT4" s="7">
-        <v>123</v>
-      </c>
-      <c r="AU4" s="7">
-        <v>123</v>
-      </c>
-      <c r="AV4" s="7">
-        <v>123</v>
-      </c>
-      <c r="AW4" s="7">
-        <v>111</v>
-      </c>
-      <c r="AX4" s="7">
-        <v>112</v>
-      </c>
-      <c r="AY4" s="7">
-        <v>97</v>
-      </c>
-      <c r="AZ4" s="7">
-        <v>99</v>
-      </c>
-      <c r="BA4" s="7">
-        <v>102</v>
-      </c>
-      <c r="BB4" s="7">
-        <v>111</v>
-      </c>
-      <c r="BC4" s="7">
-        <v>127</v>
-      </c>
-      <c r="BD4" s="7">
-        <v>129</v>
-      </c>
-      <c r="BE4" s="7">
-        <v>127</v>
-      </c>
-      <c r="BF4" s="7">
-        <v>127</v>
-      </c>
-      <c r="BG4" s="7">
-        <v>127</v>
-      </c>
-      <c r="BH4" s="7">
-        <v>127</v>
-      </c>
-      <c r="BI4" s="7">
-        <v>115</v>
-      </c>
-      <c r="BJ4" s="7">
+      <c r="BJ4" s="5">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>64</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="7"/>
-      <c r="BF5" s="7"/>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="7"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5">
+        <v>6</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A6" t="s">

--- a/data_input/source_data/Program_heli.xlsx
+++ b/data_input/source_data/Program_heli.xlsx
@@ -506,9 +506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7:AY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -974,112 +974,112 @@
         <v>47</v>
       </c>
       <c r="AA3" s="5">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>43</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>44</v>
+      </c>
+      <c r="AE3" s="5">
         <v>46</v>
       </c>
-      <c r="AB3" s="5">
-        <v>47</v>
-      </c>
-      <c r="AC3" s="5">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="5">
-        <v>62</v>
-      </c>
-      <c r="AE3" s="5">
-        <v>64</v>
-      </c>
       <c r="AF3" s="5">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="AG3" s="5">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="AH3" s="5">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AI3" s="5">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AJ3" s="5">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AK3" s="5">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="AL3" s="5">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="AM3" s="5">
+        <v>42</v>
+      </c>
+      <c r="AN3" s="5">
         <v>43</v>
       </c>
-      <c r="AN3" s="5">
+      <c r="AO3" s="5">
+        <v>42</v>
+      </c>
+      <c r="AP3" s="5">
+        <v>44</v>
+      </c>
+      <c r="AQ3" s="5">
         <v>46</v>
       </c>
-      <c r="AO3" s="5">
+      <c r="AR3" s="5">
+        <v>47</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>47</v>
+      </c>
+      <c r="AT3" s="5">
+        <v>47</v>
+      </c>
+      <c r="AU3" s="5">
+        <v>47</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>47</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>47</v>
+      </c>
+      <c r="AX3" s="5">
+        <v>47</v>
+      </c>
+      <c r="AY3" s="5">
+        <v>42</v>
+      </c>
+      <c r="AZ3" s="5">
+        <v>43</v>
+      </c>
+      <c r="BA3" s="5">
+        <v>42</v>
+      </c>
+      <c r="BB3" s="5">
+        <v>44</v>
+      </c>
+      <c r="BC3" s="5">
         <v>46</v>
       </c>
-      <c r="AP3" s="5">
-        <v>53</v>
-      </c>
-      <c r="AQ3" s="5">
-        <v>55</v>
-      </c>
-      <c r="AR3" s="5">
-        <v>56</v>
-      </c>
-      <c r="AS3" s="5">
-        <v>54</v>
-      </c>
-      <c r="AT3" s="5">
-        <v>53</v>
-      </c>
-      <c r="AU3" s="5">
-        <v>53</v>
-      </c>
-      <c r="AV3" s="5">
-        <v>53</v>
-      </c>
-      <c r="AW3" s="5">
-        <v>56</v>
-      </c>
-      <c r="AX3" s="5">
-        <v>56</v>
-      </c>
-      <c r="AY3" s="5">
-        <v>38</v>
-      </c>
-      <c r="AZ3" s="5">
-        <v>41</v>
-      </c>
-      <c r="BA3" s="5">
-        <v>41</v>
-      </c>
-      <c r="BB3" s="5">
-        <v>48</v>
-      </c>
-      <c r="BC3" s="5">
-        <v>50</v>
-      </c>
       <c r="BD3" s="5">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="BE3" s="5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BF3" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BG3" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BH3" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BI3" s="5">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="BJ3" s="5">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.35">
